--- a/src/Input_Files/kingdom_names/iberia_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/iberia_kingdoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\kingdom_names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\iberia_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E75019D-1E20-4600-A122-A66F621B97EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07478E45-3A99-48F2-81BB-3CF38CEB14AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="5310" windowWidth="21600" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kingdoms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>RGB</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>government</t>
+  </si>
+  <si>
+    <t>feudal_government</t>
   </si>
 </sst>
 </file>
@@ -152,10 +155,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -240,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,18 +646,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -604,8 +688,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -618,8 +705,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -632,8 +722,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -646,8 +739,11 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -659,28 +755,34 @@
       </c>
       <c r="D6" t="s">
         <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
